--- a/organisation/Sprint 2 - Zeitaufzeichnung.xlsx
+++ b/organisation/Sprint 2 - Zeitaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffce2ed5387dd938/Dokumente/GitHub/cellarius/organisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{65C0D87D-C112-45DE-9386-F52D71E733B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F023BD2B-259A-424D-A150-AFF65389ACE8}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{65C0D87D-C112-45DE-9386-F52D71E733B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D5CF9B3-F465-475D-B75B-9B01C825E584}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3375" windowWidth="21870" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-21600" windowWidth="18420" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Simple Read Email Phyton Script fürs Testen</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Summe:</t>
+  </si>
+  <si>
+    <t>Mitwirkender</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[h]:mm"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -190,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -218,6 +221,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -229,20 +241,20 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -608,7 +620,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,17 +631,17 @@
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -814,10 +826,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -825,7 +837,7 @@
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <f>D15+D16+D7</f>
         <v>0.60416666666666674</v>
       </c>
@@ -834,7 +846,7 @@
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <f>D7+D13+D14</f>
         <v>0.66666666666666674</v>
       </c>
@@ -843,7 +855,7 @@
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <f>D7+D8+D9+D10+D11+D12</f>
         <v>1.0215277777777778</v>
       </c>
@@ -852,16 +864,16 @@
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <f>D5+D6+D7</f>
         <v>0.59097222222222223</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <f>SUM(B19:B22)</f>
         <v>2.8833333333333333</v>
       </c>
